--- a/data-raw/serotype-data.xlsx
+++ b/data-raw/serotype-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cross-react" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,7 @@
     <sheet name="group-names" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="layout-one" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="vaccines" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="full-list" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="134">
   <si>
     <t xml:space="preserve">serotype</t>
   </si>
@@ -336,6 +337,96 @@
   </si>
   <si>
     <t xml:space="preserve">All serotypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
   </si>
 </sst>
 </file>
@@ -352,6 +443,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -447,10 +539,10 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +919,7 @@
       <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.42"/>
   </cols>
@@ -1128,11 +1220,11 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.23"/>
@@ -1370,10 +1462,10 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="57.66"/>
   </cols>
@@ -1818,7 +1910,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="8.47"/>
@@ -1876,46 +1968,60 @@
       <c r="A2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="b">
+      <c r="B2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1923,46 +2029,60 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2" t="b">
+      <c r="B3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1970,46 +2090,60 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="b">
+      <c r="B4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2017,46 +2151,60 @@
       <c r="A5" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="b">
+      <c r="B5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2064,46 +2212,60 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="b">
+      <c r="B6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2111,46 +2273,60 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="b">
+      <c r="B7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2158,46 +2334,60 @@
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="b">
+      <c r="B8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2205,46 +2395,60 @@
       <c r="A9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2" t="b">
+      <c r="B9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2252,46 +2456,60 @@
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2" t="b">
+      <c r="B10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2299,46 +2517,60 @@
       <c r="A11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2" t="b">
+      <c r="B11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2346,46 +2578,60 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2" t="b">
+      <c r="B12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2393,46 +2639,60 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2" t="b">
+      <c r="B13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2440,46 +2700,60 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2" t="b">
+      <c r="B14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2487,46 +2761,60 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2" t="b">
+      <c r="B15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2534,46 +2822,60 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2" t="b">
+      <c r="B16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2581,46 +2883,60 @@
       <c r="A17" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2" t="b">
+      <c r="B17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2628,46 +2944,60 @@
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2" t="b">
+      <c r="B18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2675,46 +3005,60 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2" t="b">
+      <c r="B19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2722,46 +3066,60 @@
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2" t="b">
+      <c r="B20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2769,46 +3127,60 @@
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2" t="b">
+      <c r="B21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2816,46 +3188,60 @@
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2" t="b">
+      <c r="B22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2863,46 +3249,60 @@
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2" t="b">
+      <c r="B23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O23" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2910,46 +3310,60 @@
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2" t="b">
+      <c r="B24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2957,46 +3371,60 @@
       <c r="A25" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2" t="b">
+      <c r="B25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3009,4 +3437,283 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A51"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>